--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO_P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" activeTab="3"/>
@@ -1998,6 +1998,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,98 +2094,89 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2118,101 +2196,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2382,7 +2382,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2405,14 +2405,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2455,7 +2455,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2478,14 +2478,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2858,28 +2858,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -2888,17 +2888,17 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -2907,93 +2907,86 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3004,6 +2997,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3061,17 +3061,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3080,132 +3080,132 @@
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="112" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="112" t="s">
         <v>184</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="112" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="112" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="112" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="112" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="112" t="s">
         <v>132</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
       <c r="B17" s="5"/>
@@ -3219,17 +3219,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="47" t="s">
@@ -3241,38 +3241,38 @@
       <c r="D19" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="133" t="s">
+      <c r="E19" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="133" t="s">
+      <c r="F19" s="144"/>
+      <c r="G19" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1"/>
       <c r="C21" s="9"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" thickBot="1">
       <c r="B22" s="2"/>
@@ -3286,11 +3286,11 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="46" t="s">
@@ -3327,17 +3327,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="51" t="s">
@@ -3349,58 +3349,59 @@
       <c r="D29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="130" t="s">
+      <c r="E29" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130" t="s">
+      <c r="F29" s="139"/>
+      <c r="G29" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="12"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3416,13 +3417,12 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3464,7 +3464,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3508,39 +3508,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="149"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="153"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -4298,38 +4298,38 @@
         <v>2</v>
       </c>
       <c r="M16" s="99"/>
-      <c r="N16" s="153" t="s">
+      <c r="N16" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="156" t="s">
-        <v>116</v>
-      </c>
-      <c r="R16" s="156" t="s">
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="157" t="s">
         <v>118</v>
       </c>
       <c r="S16" s="61"/>
-      <c r="T16" s="159" t="s">
+      <c r="T16" s="160" t="s">
         <v>99</v>
       </c>
       <c r="U16" s="60"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="X16" s="162" t="s">
+      <c r="V16" s="166"/>
+      <c r="W16" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="Y16" s="140">
+      <c r="Y16" s="169">
         <v>12</v>
       </c>
-      <c r="Z16" s="140">
+      <c r="Z16" s="169">
         <v>2</v>
       </c>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B17" s="60" t="s">
@@ -4362,22 +4362,22 @@
       <c r="M17" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="N17" s="154"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="158"/>
       <c r="S17" s="61"/>
-      <c r="T17" s="160"/>
+      <c r="T17" s="161"/>
       <c r="U17" s="60"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
     </row>
     <row r="18" spans="2:29" s="3" customFormat="1">
       <c r="B18" s="60" t="s">
@@ -4410,22 +4410,22 @@
       <c r="M18" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="N18" s="155"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
       <c r="S18" s="61"/>
-      <c r="T18" s="161"/>
+      <c r="T18" s="162"/>
       <c r="U18" s="60"/>
-      <c r="V18" s="142"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="142"/>
-      <c r="Z18" s="142"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="84"/>
@@ -4492,7 +4492,7 @@
         <v>119</v>
       </c>
       <c r="K20" s="60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -4520,7 +4520,7 @@
         <v>121</v>
       </c>
       <c r="Y20" s="89">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z20" s="89"/>
       <c r="AA20" s="60"/>
@@ -5169,8 +5169,8 @@
       <c r="N32" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="63" t="s">
         <v>116</v>
       </c>
@@ -5223,8 +5223,8 @@
       <c r="N33" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="63" t="s">
         <v>116</v>
       </c>
@@ -5279,8 +5279,8 @@
       <c r="N34" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="165"/>
-      <c r="P34" s="165"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="63" t="s">
         <v>116</v>
       </c>
@@ -5337,8 +5337,8 @@
       <c r="N35" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O35" s="165"/>
-      <c r="P35" s="165"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
       <c r="Q35" s="63" t="s">
         <v>116</v>
       </c>
@@ -5397,8 +5397,8 @@
       <c r="N36" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
       <c r="Q36" s="63" t="s">
         <v>116</v>
       </c>
@@ -5456,8 +5456,8 @@
       <c r="N37" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O37" s="165"/>
-      <c r="P37" s="165"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
       <c r="Q37" s="63" t="s">
         <v>116</v>
       </c>
@@ -5508,8 +5508,8 @@
       <c r="N38" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O38" s="165"/>
-      <c r="P38" s="165"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
       <c r="Q38" s="63" t="s">
         <v>116</v>
       </c>
@@ -5558,8 +5558,8 @@
       <c r="N39" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O39" s="165"/>
-      <c r="P39" s="165"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
       <c r="Q39" s="63" t="s">
         <v>116</v>
       </c>
@@ -5608,8 +5608,8 @@
       <c r="N40" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O40" s="165"/>
-      <c r="P40" s="165"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
       <c r="Q40" s="63" t="s">
         <v>116</v>
       </c>
@@ -5664,8 +5664,8 @@
       <c r="N41" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O41" s="165"/>
-      <c r="P41" s="165"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
       <c r="Q41" s="63" t="s">
         <v>116</v>
       </c>
@@ -5718,8 +5718,8 @@
       <c r="N42" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O42" s="165"/>
-      <c r="P42" s="165"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
       <c r="Q42" s="63" t="s">
         <v>116</v>
       </c>
@@ -5772,8 +5772,8 @@
       <c r="N43" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O43" s="165"/>
-      <c r="P43" s="165"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
       <c r="Q43" s="63" t="s">
         <v>116</v>
       </c>
@@ -5830,8 +5830,8 @@
       <c r="N44" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O44" s="165"/>
-      <c r="P44" s="165"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
       <c r="Q44" s="63" t="s">
         <v>116</v>
       </c>
@@ -5888,8 +5888,8 @@
       <c r="N45" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="O45" s="165"/>
-      <c r="P45" s="165"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
       <c r="Q45" s="63" t="s">
         <v>116</v>
       </c>
@@ -5915,27 +5915,27 @@
       <c r="AC45" s="60"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="169"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="170" t="s">
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="O46" s="165"/>
-      <c r="P46" s="165"/>
-      <c r="Q46" s="173" t="s">
-        <v>116</v>
-      </c>
-      <c r="R46" s="173" t="s">
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="R46" s="111" t="s">
         <v>118</v>
       </c>
       <c r="T46" s="102" t="s">
@@ -5951,33 +5951,33 @@
       <c r="Y46" s="102">
         <v>2</v>
       </c>
-      <c r="Z46" s="166"/>
-      <c r="AA46" s="166"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="167"/>
-      <c r="N47" s="170" t="s">
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="O47" s="165"/>
-      <c r="P47" s="172"/>
-      <c r="Q47" s="173" t="s">
-        <v>116</v>
-      </c>
-      <c r="R47" s="173" t="s">
+      <c r="O47" s="103"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="R47" s="111" t="s">
         <v>118</v>
       </c>
       <c r="T47" s="102" t="s">
@@ -5993,38 +5993,38 @@
       <c r="Y47" s="102">
         <v>2</v>
       </c>
-      <c r="Z47" s="166"/>
-      <c r="AA47" s="166"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
+      <c r="Z47" s="104"/>
+      <c r="AA47" s="104"/>
+      <c r="AB47" s="104"/>
+      <c r="AC47" s="104"/>
     </row>
     <row r="48" spans="2:29">
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="169"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="171"/>
-      <c r="O48" s="165"/>
-      <c r="P48" s="165"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
       <c r="Q48" s="63" t="s">
         <v>116</v>
       </c>
       <c r="R48" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="165"/>
+      <c r="S48" s="103"/>
       <c r="T48" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="U48" s="166"/>
+      <c r="U48" s="104"/>
       <c r="V48" s="60"/>
       <c r="W48" s="60" t="s">
         <v>143</v>
@@ -6033,13 +6033,19 @@
         <v>120</v>
       </c>
       <c r="Y48" s="60"/>
-      <c r="Z48" s="166"/>
-      <c r="AA48" s="166"/>
-      <c r="AB48" s="166"/>
-      <c r="AC48" s="166"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="104"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="V16:V18"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="Z16:Z18"/>
+    <mergeCell ref="AA16:AA18"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -6049,12 +6055,8 @@
     <mergeCell ref="T16:T18"/>
     <mergeCell ref="X16:X18"/>
     <mergeCell ref="AB16:AB18"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="V16:V18"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="Z16:Z18"/>
-    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="O16:O18"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6322,16 +6324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6380,39 +6381,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6427,10 +6414,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_ESPECIALIZACAO_P1.xlsx
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="205">
   <si>
     <t>Schema</t>
   </si>
@@ -1372,6 +1372,9 @@
 AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
 AND IND_TIPO_SALARIO IN ('H','M')
 </t>
+  </si>
+  <si>
+    <t>CONSOLIDACAO_HORISTA</t>
   </si>
 </sst>
 </file>
@@ -2253,6 +2256,124 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2262,98 +2383,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2373,15 +2494,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2391,81 +2503,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2476,57 +2513,23 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2695,7 +2698,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2718,14 +2721,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2768,7 +2771,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2791,14 +2794,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3171,28 +3174,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
@@ -3201,17 +3204,17 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129" t="s">
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
@@ -3220,93 +3223,86 @@
       <c r="C12" s="29">
         <v>41236</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3317,6 +3313,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3374,17 +3377,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
@@ -3393,132 +3396,132 @@
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="112" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="52"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="112" t="s">
         <v>147</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="112" t="s">
         <v>184</v>
       </c>
       <c r="C10" s="52"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="112" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="112" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="112" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="52"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="112" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="112" t="s">
         <v>132</v>
       </c>
       <c r="C16" s="52"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
       <c r="B17" s="5"/>
@@ -3532,17 +3535,17 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="47" t="s">
@@ -3554,38 +3557,38 @@
       <c r="D19" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="144" t="s">
+      <c r="F19" s="166"/>
+      <c r="G19" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1"/>
       <c r="C21" s="9"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" thickBot="1">
       <c r="B22" s="2"/>
@@ -3599,11 +3602,11 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="46" t="s">
@@ -3640,17 +3643,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="51" t="s">
@@ -3662,57 +3665,59 @@
       <c r="D29" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="141" t="s">
+      <c r="E29" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141" t="s">
+      <c r="F29" s="161"/>
+      <c r="G29" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="12"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3729,13 +3734,11 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D16:J16"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3749,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3759,10 +3762,6 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
-  <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId2"/>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -3821,39 +3820,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="2:29" ht="25.5" customHeight="1">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="164" t="s">
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="175"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -4228,14 +4227,14 @@
       </c>
       <c r="O9" s="61"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="63" t="s">
+      <c r="Q9" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="S9" s="63"/>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="67" t="s">
         <v>94</v>
       </c>
       <c r="U9" s="59"/>
@@ -4567,38 +4566,38 @@
         <v>2</v>
       </c>
       <c r="M15" s="99"/>
-      <c r="N15" s="167" t="s">
+      <c r="N15" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" s="154" t="s">
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" s="179" t="s">
         <v>118</v>
       </c>
       <c r="S15" s="61"/>
-      <c r="T15" s="170" t="s">
+      <c r="T15" s="182" t="s">
         <v>99</v>
       </c>
       <c r="U15" s="60"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="X15" s="173" t="s">
+      <c r="V15" s="191"/>
+      <c r="W15" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="X15" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="Y15" s="157">
+      <c r="Y15" s="194">
         <v>12</v>
       </c>
-      <c r="Z15" s="157">
+      <c r="Z15" s="194">
         <v>2</v>
       </c>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
+      <c r="AA15" s="188"/>
+      <c r="AB15" s="188"/>
+      <c r="AC15" s="188"/>
     </row>
     <row r="16" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B16" s="60" t="s">
@@ -4631,22 +4630,22 @@
       <c r="M16" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="N16" s="168"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="155"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
       <c r="S16" s="61"/>
-      <c r="T16" s="171"/>
+      <c r="T16" s="183"/>
       <c r="U16" s="60"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="149"/>
-      <c r="AB16" s="149"/>
-      <c r="AC16" s="149"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="180"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
     </row>
     <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="60" t="s">
@@ -4679,22 +4678,22 @@
       <c r="M17" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="N17" s="169"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="181"/>
       <c r="S17" s="61"/>
-      <c r="T17" s="172"/>
+      <c r="T17" s="184"/>
       <c r="U17" s="60"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="175"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="150"/>
-      <c r="AC17" s="150"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="181"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="196"/>
+      <c r="Z17" s="196"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="84"/>
@@ -6265,6 +6264,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="Y15:Y17"/>
+    <mergeCell ref="Z15:Z17"/>
+    <mergeCell ref="AA15:AA17"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -6276,12 +6281,6 @@
     <mergeCell ref="AB15:AB17"/>
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="O15:O17"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="Y15:Y17"/>
-    <mergeCell ref="Z15:Z17"/>
-    <mergeCell ref="AA15:AA17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6315,7 +6314,7 @@
   <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6334,7 +6333,7 @@
     <col min="10" max="10" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="50.140625" style="54" customWidth="1"/>
     <col min="15" max="16" width="29.85546875" style="54" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" style="54" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="54" bestFit="1" customWidth="1"/>
@@ -6362,39 +6361,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="164" t="s">
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="175"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -6490,7 +6489,9 @@
       <c r="C4" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E4" s="64"/>
       <c r="F4" s="66" t="s">
         <v>88</v>
@@ -6545,7 +6546,9 @@
       <c r="C5" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E5" s="64"/>
       <c r="F5" s="66" t="s">
         <v>92</v>
@@ -6600,8 +6603,10 @@
       <c r="C6" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="177"/>
+      <c r="D6" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="115"/>
       <c r="F6" s="90" t="s">
         <v>87</v>
       </c>
@@ -6655,7 +6660,9 @@
       <c r="C7" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E7" s="64"/>
       <c r="F7" s="80" t="s">
         <v>93</v>
@@ -6708,7 +6715,9 @@
       <c r="C8" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E8" s="64"/>
       <c r="F8" s="70" t="s">
         <v>89</v>
@@ -6762,7 +6771,9 @@
       <c r="C9" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E9" s="64"/>
       <c r="F9" s="59" t="s">
         <v>94</v>
@@ -6816,7 +6827,9 @@
       <c r="C10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E10" s="64"/>
       <c r="F10" s="80" t="s">
         <v>95</v>
@@ -6870,7 +6883,9 @@
       <c r="C11" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E11" s="64"/>
       <c r="F11" s="70" t="s">
         <v>78</v>
@@ -6880,7 +6895,7 @@
       <c r="I11" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="178" t="s">
+      <c r="J11" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K11" s="89">
@@ -6918,14 +6933,16 @@
       <c r="AC11" s="65"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="179"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E12" s="64"/>
       <c r="F12" s="59" t="s">
         <v>96</v>
@@ -6973,14 +6990,16 @@
       <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
-      <c r="A13" s="179"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="180"/>
+      <c r="D13" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E13" s="64"/>
       <c r="F13" s="67" t="s">
         <v>97</v>
@@ -7026,14 +7045,16 @@
       <c r="AC13" s="60"/>
     </row>
     <row r="14" spans="1:33" s="3" customFormat="1">
-      <c r="A14" s="179"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E14" s="64"/>
       <c r="F14" s="66" t="s">
         <v>98</v>
@@ -7083,14 +7104,16 @@
       <c r="AC14" s="60"/>
     </row>
     <row r="15" spans="1:33" s="3" customFormat="1">
-      <c r="A15" s="179"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E15" s="64"/>
       <c r="F15" s="93" t="s">
         <v>99</v>
@@ -7110,7 +7133,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="99"/>
-      <c r="N15" s="184"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81" t="s">
@@ -7142,14 +7165,16 @@
       <c r="AC15" s="102"/>
     </row>
     <row r="16" spans="1:33" s="3" customFormat="1">
-      <c r="A16" s="181"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E16" s="64"/>
       <c r="F16" s="66" t="s">
         <v>100</v>
@@ -7192,14 +7217,16 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33" s="3" customFormat="1">
-      <c r="A17" s="181"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E17" s="64"/>
       <c r="F17" s="66" t="s">
         <v>101</v>
@@ -7248,14 +7275,16 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1">
-      <c r="A18" s="181"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E18" s="64"/>
       <c r="F18" s="59" t="s">
         <v>102</v>
@@ -7308,14 +7337,16 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33" s="3" customFormat="1">
-      <c r="A19" s="181"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E19" s="64"/>
       <c r="F19" s="66" t="s">
         <v>79</v>
@@ -7364,14 +7395,16 @@
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="1:33" s="3" customFormat="1">
-      <c r="A20" s="181"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E20" s="64"/>
       <c r="F20" s="66" t="s">
         <v>80</v>
@@ -7420,14 +7453,16 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="1:33" s="3" customFormat="1">
-      <c r="A21" s="181"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E21" s="64"/>
       <c r="F21" s="66" t="s">
         <v>81</v>
@@ -7476,14 +7511,16 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1">
-      <c r="A22" s="181"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E22" s="64"/>
       <c r="F22" s="66" t="s">
         <v>82</v>
@@ -7532,14 +7569,16 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="1:33" s="3" customFormat="1">
-      <c r="A23" s="181"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E23" s="64"/>
       <c r="F23" s="66" t="s">
         <v>83</v>
@@ -7588,14 +7627,16 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24" spans="1:33" s="3" customFormat="1">
-      <c r="A24" s="181"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E24" s="64"/>
       <c r="F24" s="59" t="s">
         <v>84</v>
@@ -7644,14 +7685,16 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1">
-      <c r="A25" s="181"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E25" s="64"/>
       <c r="F25" s="59" t="s">
         <v>103</v>
@@ -7700,14 +7743,16 @@
       <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="1:33" s="3" customFormat="1">
-      <c r="A26" s="181"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E26" s="64"/>
       <c r="F26" s="59" t="s">
         <v>86</v>
@@ -7754,14 +7799,16 @@
       <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="1:33" s="3" customFormat="1">
-      <c r="A27" s="181"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E27" s="64"/>
       <c r="F27" s="67" t="s">
         <v>104</v>
@@ -7808,14 +7855,16 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="1:33" s="3" customFormat="1">
-      <c r="A28" s="181"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="60"/>
+      <c r="D28" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E28" s="64"/>
       <c r="F28" s="100" t="s">
         <v>105</v>
@@ -7862,14 +7911,16 @@
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="181"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60" t="s">
         <v>149</v>
@@ -7922,19 +7973,21 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33" s="3" customFormat="1">
-      <c r="A30" s="181"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="182"/>
+      <c r="D30" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="120"/>
       <c r="F30" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="181"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73" t="s">
         <v>122</v>
@@ -7974,19 +8027,21 @@
       <c r="AG30" s="2"/>
     </row>
     <row r="31" spans="1:33" s="3" customFormat="1">
-      <c r="A31" s="181"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="182"/>
+      <c r="D31" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="120"/>
       <c r="F31" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="181"/>
+      <c r="G31" s="119"/>
       <c r="H31" s="73"/>
       <c r="I31" s="73" t="s">
         <v>122</v>
@@ -8026,19 +8081,21 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="1:33" s="3" customFormat="1">
-      <c r="A32" s="181"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="182"/>
+      <c r="D32" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="120"/>
       <c r="F32" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="181"/>
+      <c r="G32" s="119"/>
       <c r="H32" s="73"/>
       <c r="I32" s="73" t="s">
         <v>122</v>
@@ -8086,14 +8143,16 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33" spans="1:33" s="3" customFormat="1">
-      <c r="A33" s="181"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>91</v>
@@ -8142,14 +8201,16 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34" spans="1:33" s="3" customFormat="1">
-      <c r="A34" s="181"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E34" s="60"/>
       <c r="F34" s="60" t="s">
         <v>163</v>
@@ -8198,14 +8259,16 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35" spans="1:33" s="3" customFormat="1">
-      <c r="A35" s="181"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60" t="s">
         <v>162</v>
@@ -8254,29 +8317,31 @@
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="1:33" s="3" customFormat="1">
-      <c r="A36" s="181"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
+      <c r="D36" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="121"/>
       <c r="F36" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
       <c r="J36" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K36" s="102">
         <v>2</v>
       </c>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
       <c r="N36" s="108"/>
       <c r="O36" s="103"/>
       <c r="P36" s="103"/>
@@ -8308,19 +8373,21 @@
       <c r="AG36" s="2"/>
     </row>
     <row r="37" spans="1:33" s="3" customFormat="1">
-      <c r="A37" s="181"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="182"/>
+      <c r="D37" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="120"/>
       <c r="F37" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="181"/>
+      <c r="G37" s="119"/>
       <c r="H37" s="73"/>
       <c r="I37" s="73" t="s">
         <v>122</v>
@@ -8331,36 +8398,36 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
-      <c r="N37" s="185" t="s">
+      <c r="N37" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" s="190" t="s">
-        <v>118</v>
-      </c>
-      <c r="S37" s="191"/>
-      <c r="T37" s="190" t="s">
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="125"/>
+      <c r="T37" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="U37" s="192"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="X37" s="190" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y37" s="193">
+      <c r="U37" s="126"/>
+      <c r="V37" s="200"/>
+      <c r="W37" s="200" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y37" s="203">
         <v>2</v>
       </c>
-      <c r="Z37" s="185"/>
-      <c r="AA37" s="185"/>
-      <c r="AB37" s="185"/>
-      <c r="AC37" s="185"/>
+      <c r="Z37" s="197"/>
+      <c r="AA37" s="197"/>
+      <c r="AB37" s="197"/>
+      <c r="AC37" s="197"/>
       <c r="AG37" s="2"/>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="12">
@@ -8370,7 +8437,9 @@
       <c r="C38" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E38" s="64"/>
       <c r="F38" s="81" t="s">
         <v>90</v>
@@ -8380,7 +8449,7 @@
       <c r="I38" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="178" t="s">
+      <c r="J38" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K38" s="89">
@@ -8388,47 +8457,49 @@
       </c>
       <c r="L38" s="89"/>
       <c r="M38" s="60"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R38" s="194" t="s">
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R38" s="201" t="s">
         <v>118</v>
       </c>
       <c r="S38" s="83"/>
-      <c r="T38" s="194" t="s">
+      <c r="T38" s="201" t="s">
         <v>90</v>
       </c>
       <c r="U38" s="67"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X38" s="194" t="s">
+      <c r="V38" s="201"/>
+      <c r="W38" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X38" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y38" s="195"/>
-      <c r="Z38" s="186"/>
-      <c r="AA38" s="186"/>
-      <c r="AB38" s="186"/>
-      <c r="AC38" s="186"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1">
-      <c r="A39" s="181"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="182"/>
+      <c r="D39" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="120"/>
       <c r="F39" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="181"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="60"/>
       <c r="I39" s="60" t="s">
         <v>122</v>
@@ -8441,48 +8512,50 @@
       </c>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S39" s="191"/>
-      <c r="T39" s="194" t="s">
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S39" s="125"/>
+      <c r="T39" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="U39" s="192"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X39" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y39" s="195"/>
-      <c r="Z39" s="186"/>
-      <c r="AA39" s="186"/>
-      <c r="AB39" s="186"/>
-      <c r="AC39" s="186"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="198"/>
+      <c r="AC39" s="198"/>
       <c r="AG39" s="2"/>
     </row>
     <row r="40" spans="1:33" s="3" customFormat="1">
-      <c r="A40" s="181"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="182"/>
+      <c r="D40" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="120"/>
       <c r="F40" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="181"/>
+      <c r="G40" s="119"/>
       <c r="H40" s="73"/>
       <c r="I40" s="73" t="s">
         <v>122</v>
@@ -8495,48 +8568,50 @@
       </c>
       <c r="L40" s="73"/>
       <c r="M40" s="73"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="186"/>
-      <c r="P40" s="186"/>
-      <c r="Q40" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R40" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S40" s="191"/>
-      <c r="T40" s="194" t="s">
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40" s="125"/>
+      <c r="T40" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="U40" s="192"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X40" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y40" s="195"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="186"/>
-      <c r="AC40" s="186"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="201"/>
+      <c r="W40" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y40" s="204"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
+      <c r="AC40" s="198"/>
       <c r="AG40" s="2"/>
     </row>
     <row r="41" spans="1:33" s="3" customFormat="1">
-      <c r="A41" s="181"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="182"/>
+      <c r="D41" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="120"/>
       <c r="F41" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="119"/>
       <c r="H41" s="60"/>
       <c r="I41" s="60" t="s">
         <v>122</v>
@@ -8549,43 +8624,45 @@
       </c>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="186"/>
-      <c r="O41" s="186"/>
-      <c r="P41" s="186"/>
-      <c r="Q41" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S41" s="191"/>
-      <c r="T41" s="194" t="s">
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" s="125"/>
+      <c r="T41" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="U41" s="192"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X41" s="194" t="s">
+      <c r="U41" s="126"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X41" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y41" s="195"/>
-      <c r="Z41" s="186"/>
-      <c r="AA41" s="186"/>
-      <c r="AB41" s="186"/>
-      <c r="AC41" s="186"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+      <c r="AC41" s="198"/>
       <c r="AG41" s="2"/>
     </row>
     <row r="42" spans="1:33" s="3" customFormat="1">
-      <c r="A42" s="181"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="60"/>
+      <c r="D42" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E42" s="60"/>
       <c r="F42" s="60" t="s">
         <v>161</v>
@@ -8603,48 +8680,50 @@
       </c>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S42" s="191"/>
-      <c r="T42" s="194" t="s">
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S42" s="125"/>
+      <c r="T42" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="U42" s="192"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y42" s="195"/>
-      <c r="Z42" s="186"/>
-      <c r="AA42" s="186"/>
-      <c r="AB42" s="186"/>
-      <c r="AC42" s="186"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="201"/>
+      <c r="W42" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X42" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+      <c r="AC42" s="198"/>
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="1:33" s="3" customFormat="1">
-      <c r="A43" s="181"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="182"/>
+      <c r="D43" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="120"/>
       <c r="F43" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="181"/>
+      <c r="G43" s="119"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73" t="s">
         <v>122</v>
@@ -8655,48 +8734,50 @@
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="73"/>
-      <c r="N43" s="186"/>
-      <c r="O43" s="186"/>
-      <c r="P43" s="186"/>
-      <c r="Q43" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S43" s="191"/>
-      <c r="T43" s="194" t="s">
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S43" s="125"/>
+      <c r="T43" s="201" t="s">
         <v>138</v>
       </c>
-      <c r="U43" s="192"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X43" s="194" t="s">
+      <c r="U43" s="126"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X43" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="Y43" s="195"/>
-      <c r="Z43" s="186"/>
-      <c r="AA43" s="186"/>
-      <c r="AB43" s="186"/>
-      <c r="AC43" s="186"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
+      <c r="AC43" s="198"/>
       <c r="AG43" s="2"/>
     </row>
     <row r="44" spans="1:33" s="3" customFormat="1">
-      <c r="A44" s="181"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="60"/>
+      <c r="D44" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="E44" s="60"/>
       <c r="F44" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="181"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60" t="s">
         <v>122</v>
@@ -8709,108 +8790,112 @@
       </c>
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="186"/>
-      <c r="Q44" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R44" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S44" s="191"/>
-      <c r="T44" s="194" t="s">
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" s="125"/>
+      <c r="T44" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="U44" s="192"/>
-      <c r="V44" s="194"/>
-      <c r="W44" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X44" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="195"/>
-      <c r="Z44" s="186"/>
-      <c r="AA44" s="186"/>
-      <c r="AB44" s="186"/>
-      <c r="AC44" s="186"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="201"/>
+      <c r="W44" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="198"/>
+      <c r="AA44" s="198"/>
+      <c r="AB44" s="198"/>
+      <c r="AC44" s="198"/>
       <c r="AG44" s="2"/>
     </row>
     <row r="45" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="181"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
+      <c r="D45" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="121"/>
       <c r="F45" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
       <c r="J45" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="102">
         <v>2</v>
       </c>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="R45" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="S45" s="191"/>
-      <c r="T45" s="196" t="s">
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="199"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" s="125"/>
+      <c r="T45" s="202" t="s">
         <v>180</v>
       </c>
-      <c r="U45" s="192"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="196" t="s">
+      <c r="U45" s="126"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="X45" s="196" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="197"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="187"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="187"/>
+      <c r="X45" s="202" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="199"/>
+      <c r="AA45" s="199"/>
+      <c r="AB45" s="199"/>
+      <c r="AC45" s="199"/>
       <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="1:33" s="3" customFormat="1">
-      <c r="A46" s="181"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
+      <c r="D46" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="121"/>
       <c r="F46" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="60" t="s">
         <v>120</v>
       </c>
       <c r="K46" s="60"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
       <c r="N46" s="109"/>
       <c r="O46" s="103"/>
       <c r="P46" s="103"/>
@@ -8852,7 +8937,7 @@
       <c r="K47" s="107"/>
       <c r="L47" s="107"/>
       <c r="M47" s="105"/>
-      <c r="N47" s="189" t="s">
+      <c r="N47" s="124" t="s">
         <v>190</v>
       </c>
       <c r="O47" s="103"/>
@@ -8892,7 +8977,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="107"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="189" t="s">
+      <c r="N48" s="124" t="s">
         <v>191</v>
       </c>
       <c r="O48" s="103"/>
@@ -8903,12 +8988,12 @@
       <c r="R48" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="191"/>
+      <c r="S48" s="125"/>
       <c r="T48" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="U48" s="192"/>
-      <c r="V48" s="198"/>
+      <c r="U48" s="126"/>
+      <c r="V48" s="127"/>
       <c r="W48" s="90" t="s">
         <v>143</v>
       </c>
@@ -8934,7 +9019,7 @@
       <c r="K49" s="107"/>
       <c r="L49" s="107"/>
       <c r="M49" s="105"/>
-      <c r="N49" s="189" t="s">
+      <c r="N49" s="124" t="s">
         <v>192</v>
       </c>
       <c r="O49" s="103"/>
@@ -8962,19 +9047,19 @@
       <c r="AC49" s="104"/>
     </row>
     <row r="50" spans="2:29" ht="108">
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="188" t="s">
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="123" t="s">
         <v>193</v>
       </c>
       <c r="O50" s="110"/>
@@ -8985,47 +9070,53 @@
       <c r="R50" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="S50" s="191"/>
+      <c r="S50" s="125"/>
       <c r="T50" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="U50" s="192"/>
-      <c r="V50" s="202"/>
+      <c r="U50" s="126"/>
+      <c r="V50" s="131"/>
       <c r="W50" s="93" t="s">
         <v>143</v>
       </c>
       <c r="X50" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="Y50" s="203"/>
+      <c r="Y50" s="132"/>
       <c r="Z50" s="104"/>
       <c r="AA50" s="104"/>
       <c r="AB50" s="104"/>
       <c r="AC50" s="104"/>
     </row>
     <row r="51" spans="2:29" ht="84">
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="121"/>
       <c r="F51" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="90">
+        <v>1</v>
+      </c>
       <c r="L51" s="112"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="188" t="s">
+      <c r="M51" s="114"/>
+      <c r="N51" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="O51" s="204"/>
-      <c r="P51" s="204"/>
-      <c r="Q51" s="204"/>
-      <c r="R51" s="204"/>
-      <c r="S51" s="204"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
       <c r="T51" s="60" t="s">
         <v>195</v>
       </c>
@@ -9054,14 +9145,14 @@
       <c r="K52" s="107"/>
       <c r="L52" s="107"/>
       <c r="M52" s="105"/>
-      <c r="N52" s="189" t="s">
+      <c r="N52" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="O52" s="204"/>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="204"/>
-      <c r="S52" s="204"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
       <c r="T52" s="60" t="s">
         <v>196</v>
       </c>
@@ -9163,6 +9254,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N37:N45"/>
+    <mergeCell ref="O37:O45"/>
+    <mergeCell ref="P37:P45"/>
+    <mergeCell ref="Q37:Q45"/>
+    <mergeCell ref="R37:R45"/>
     <mergeCell ref="AA37:AA45"/>
     <mergeCell ref="AB37:AB45"/>
     <mergeCell ref="AC37:AC45"/>
@@ -9172,14 +9271,6 @@
     <mergeCell ref="X37:X45"/>
     <mergeCell ref="Y37:Y45"/>
     <mergeCell ref="Z37:Z45"/>
-    <mergeCell ref="N37:N45"/>
-    <mergeCell ref="O37:O45"/>
-    <mergeCell ref="P37:P45"/>
-    <mergeCell ref="Q37:Q45"/>
-    <mergeCell ref="R37:R45"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9243,39 +9334,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="164" t="s">
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="175"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -9482,7 +9573,7 @@
         <v>116</v>
       </c>
       <c r="D6" s="90"/>
-      <c r="E6" s="177"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="90" t="s">
         <v>87</v>
       </c>
@@ -9761,7 +9852,7 @@
       <c r="I11" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="178" t="s">
+      <c r="J11" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K11" s="89">
@@ -9799,7 +9890,7 @@
       <c r="AC11" s="65"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="179"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="60" t="s">
         <v>117</v>
       </c>
@@ -9854,14 +9945,14 @@
       <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
-      <c r="A13" s="179"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="180"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="64"/>
       <c r="F13" s="67" t="s">
         <v>97</v>
@@ -9907,7 +9998,7 @@
       <c r="AC13" s="60"/>
     </row>
     <row r="14" spans="1:33" s="3" customFormat="1">
-      <c r="A14" s="179"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="60" t="s">
         <v>117</v>
       </c>
@@ -9964,7 +10055,7 @@
       <c r="AC14" s="60"/>
     </row>
     <row r="15" spans="1:33" s="3" customFormat="1">
-      <c r="A15" s="179"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -9991,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="99"/>
-      <c r="N15" s="184"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81" t="s">
@@ -10023,7 +10114,7 @@
       <c r="AC15" s="102"/>
     </row>
     <row r="16" spans="1:33" s="3" customFormat="1">
-      <c r="A16" s="181"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="60" t="s">
         <v>117</v>
       </c>
@@ -10073,7 +10164,7 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33" s="3" customFormat="1">
-      <c r="A17" s="181"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="60" t="s">
         <v>117</v>
       </c>
@@ -10129,7 +10220,7 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1">
-      <c r="A18" s="181"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="60" t="s">
         <v>117</v>
       </c>
@@ -10189,7 +10280,7 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33" s="3" customFormat="1">
-      <c r="A19" s="181"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="60" t="s">
         <v>117</v>
       </c>
@@ -10245,7 +10336,7 @@
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="1:33" s="3" customFormat="1">
-      <c r="A20" s="181"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="60" t="s">
         <v>117</v>
       </c>
@@ -10301,7 +10392,7 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="1:33" s="3" customFormat="1">
-      <c r="A21" s="181"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="60" t="s">
         <v>117</v>
       </c>
@@ -10357,7 +10448,7 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1">
-      <c r="A22" s="181"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="60" t="s">
         <v>117</v>
       </c>
@@ -10413,7 +10504,7 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="1:33" s="3" customFormat="1">
-      <c r="A23" s="181"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="60" t="s">
         <v>117</v>
       </c>
@@ -10469,7 +10560,7 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24" spans="1:33" s="3" customFormat="1">
-      <c r="A24" s="181"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="60" t="s">
         <v>117</v>
       </c>
@@ -10525,7 +10616,7 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1">
-      <c r="A25" s="181"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="60" t="s">
         <v>117</v>
       </c>
@@ -10581,7 +10672,7 @@
       <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="1:33" s="3" customFormat="1">
-      <c r="A26" s="181"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="60" t="s">
         <v>117</v>
       </c>
@@ -10635,7 +10726,7 @@
       <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="1:33" s="3" customFormat="1">
-      <c r="A27" s="181"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="60" t="s">
         <v>117</v>
       </c>
@@ -10689,7 +10780,7 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="1:33" s="3" customFormat="1">
-      <c r="A28" s="181"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="60" t="s">
         <v>117</v>
       </c>
@@ -10743,7 +10834,7 @@
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="181"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="60" t="s">
         <v>117</v>
       </c>
@@ -10803,7 +10894,7 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33" s="3" customFormat="1">
-      <c r="A30" s="181"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="60" t="s">
         <v>117</v>
       </c>
@@ -10811,11 +10902,11 @@
         <v>116</v>
       </c>
       <c r="D30" s="99"/>
-      <c r="E30" s="182"/>
+      <c r="E30" s="120"/>
       <c r="F30" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="181"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73" t="s">
         <v>122</v>
@@ -10855,7 +10946,7 @@
       <c r="AG30" s="2"/>
     </row>
     <row r="31" spans="1:33" s="3" customFormat="1">
-      <c r="A31" s="181"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="60" t="s">
         <v>117</v>
       </c>
@@ -10863,11 +10954,11 @@
         <v>116</v>
       </c>
       <c r="D31" s="99"/>
-      <c r="E31" s="182"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="181"/>
+      <c r="G31" s="119"/>
       <c r="H31" s="73"/>
       <c r="I31" s="73" t="s">
         <v>122</v>
@@ -10907,7 +10998,7 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="1:33" s="3" customFormat="1">
-      <c r="A32" s="181"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="60" t="s">
         <v>117</v>
       </c>
@@ -10915,11 +11006,11 @@
         <v>116</v>
       </c>
       <c r="D32" s="60"/>
-      <c r="E32" s="182"/>
+      <c r="E32" s="120"/>
       <c r="F32" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="181"/>
+      <c r="G32" s="119"/>
       <c r="H32" s="73"/>
       <c r="I32" s="73" t="s">
         <v>122</v>
@@ -10967,7 +11058,7 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33" spans="1:33" s="3" customFormat="1">
-      <c r="A33" s="181"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="60" t="s">
         <v>117</v>
       </c>
@@ -11023,7 +11114,7 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34" spans="1:33" s="3" customFormat="1">
-      <c r="A34" s="181"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="60" t="s">
         <v>117</v>
       </c>
@@ -11079,7 +11170,7 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35" spans="1:33" s="3" customFormat="1">
-      <c r="A35" s="181"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="60" t="s">
         <v>117</v>
       </c>
@@ -11135,29 +11226,29 @@
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="1:33" s="3" customFormat="1">
-      <c r="A36" s="181"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
       <c r="J36" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K36" s="102">
         <v>2</v>
       </c>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
       <c r="N36" s="108"/>
       <c r="O36" s="103"/>
       <c r="P36" s="103"/>
@@ -11189,7 +11280,7 @@
       <c r="AG36" s="2"/>
     </row>
     <row r="37" spans="1:33" s="3" customFormat="1">
-      <c r="A37" s="181"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="60" t="s">
         <v>117</v>
       </c>
@@ -11197,11 +11288,11 @@
         <v>116</v>
       </c>
       <c r="D37" s="99"/>
-      <c r="E37" s="182"/>
+      <c r="E37" s="120"/>
       <c r="F37" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="181"/>
+      <c r="G37" s="119"/>
       <c r="H37" s="73"/>
       <c r="I37" s="73" t="s">
         <v>122</v>
@@ -11212,36 +11303,36 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
-      <c r="N37" s="185" t="s">
+      <c r="N37" s="197" t="s">
         <v>202</v>
       </c>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" s="190" t="s">
-        <v>118</v>
-      </c>
-      <c r="S37" s="191"/>
-      <c r="T37" s="190" t="s">
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="125"/>
+      <c r="T37" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="U37" s="192"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="X37" s="190" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y37" s="193">
+      <c r="U37" s="126"/>
+      <c r="V37" s="200"/>
+      <c r="W37" s="200" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y37" s="203">
         <v>2</v>
       </c>
-      <c r="Z37" s="185"/>
-      <c r="AA37" s="185"/>
-      <c r="AB37" s="185"/>
-      <c r="AC37" s="185"/>
+      <c r="Z37" s="197"/>
+      <c r="AA37" s="197"/>
+      <c r="AB37" s="197"/>
+      <c r="AC37" s="197"/>
       <c r="AG37" s="2"/>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="12">
@@ -11261,7 +11352,7 @@
       <c r="I38" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="178" t="s">
+      <c r="J38" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K38" s="89">
@@ -11269,35 +11360,35 @@
       </c>
       <c r="L38" s="89"/>
       <c r="M38" s="60"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R38" s="194" t="s">
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R38" s="201" t="s">
         <v>118</v>
       </c>
       <c r="S38" s="83"/>
-      <c r="T38" s="194" t="s">
+      <c r="T38" s="201" t="s">
         <v>90</v>
       </c>
       <c r="U38" s="67"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X38" s="194" t="s">
+      <c r="V38" s="201"/>
+      <c r="W38" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X38" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y38" s="195"/>
-      <c r="Z38" s="186"/>
-      <c r="AA38" s="186"/>
-      <c r="AB38" s="186"/>
-      <c r="AC38" s="186"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1">
-      <c r="A39" s="181"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="60" t="s">
         <v>117</v>
       </c>
@@ -11305,11 +11396,11 @@
         <v>116</v>
       </c>
       <c r="D39" s="60"/>
-      <c r="E39" s="182"/>
+      <c r="E39" s="120"/>
       <c r="F39" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="181"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="60"/>
       <c r="I39" s="60" t="s">
         <v>122</v>
@@ -11322,36 +11413,36 @@
       </c>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S39" s="191"/>
-      <c r="T39" s="194" t="s">
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S39" s="125"/>
+      <c r="T39" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="U39" s="192"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X39" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y39" s="195"/>
-      <c r="Z39" s="186"/>
-      <c r="AA39" s="186"/>
-      <c r="AB39" s="186"/>
-      <c r="AC39" s="186"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="198"/>
+      <c r="AC39" s="198"/>
       <c r="AG39" s="2"/>
     </row>
     <row r="40" spans="1:33" s="3" customFormat="1">
-      <c r="A40" s="181"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="60" t="s">
         <v>117</v>
       </c>
@@ -11359,11 +11450,11 @@
         <v>116</v>
       </c>
       <c r="D40" s="99"/>
-      <c r="E40" s="182"/>
+      <c r="E40" s="120"/>
       <c r="F40" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="181"/>
+      <c r="G40" s="119"/>
       <c r="H40" s="73"/>
       <c r="I40" s="73" t="s">
         <v>122</v>
@@ -11376,36 +11467,36 @@
       </c>
       <c r="L40" s="73"/>
       <c r="M40" s="73"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="186"/>
-      <c r="P40" s="186"/>
-      <c r="Q40" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R40" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S40" s="191"/>
-      <c r="T40" s="194" t="s">
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40" s="125"/>
+      <c r="T40" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="U40" s="192"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X40" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y40" s="195"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="186"/>
-      <c r="AC40" s="186"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="201"/>
+      <c r="W40" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y40" s="204"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
+      <c r="AC40" s="198"/>
       <c r="AG40" s="2"/>
     </row>
     <row r="41" spans="1:33" s="3" customFormat="1">
-      <c r="A41" s="181"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="60" t="s">
         <v>117</v>
       </c>
@@ -11413,11 +11504,11 @@
         <v>116</v>
       </c>
       <c r="D41" s="60"/>
-      <c r="E41" s="182"/>
+      <c r="E41" s="120"/>
       <c r="F41" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="119"/>
       <c r="H41" s="60"/>
       <c r="I41" s="60" t="s">
         <v>122</v>
@@ -11430,36 +11521,36 @@
       </c>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="186"/>
-      <c r="O41" s="186"/>
-      <c r="P41" s="186"/>
-      <c r="Q41" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S41" s="191"/>
-      <c r="T41" s="194" t="s">
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" s="125"/>
+      <c r="T41" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="U41" s="192"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X41" s="194" t="s">
+      <c r="U41" s="126"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X41" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y41" s="195"/>
-      <c r="Z41" s="186"/>
-      <c r="AA41" s="186"/>
-      <c r="AB41" s="186"/>
-      <c r="AC41" s="186"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+      <c r="AC41" s="198"/>
       <c r="AG41" s="2"/>
     </row>
     <row r="42" spans="1:33" s="3" customFormat="1">
-      <c r="A42" s="181"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="60" t="s">
         <v>117</v>
       </c>
@@ -11484,36 +11575,36 @@
       </c>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S42" s="191"/>
-      <c r="T42" s="194" t="s">
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S42" s="125"/>
+      <c r="T42" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="U42" s="192"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y42" s="195"/>
-      <c r="Z42" s="186"/>
-      <c r="AA42" s="186"/>
-      <c r="AB42" s="186"/>
-      <c r="AC42" s="186"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="201"/>
+      <c r="W42" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X42" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+      <c r="AC42" s="198"/>
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="1:33" s="3" customFormat="1">
-      <c r="A43" s="181"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="60" t="s">
         <v>117</v>
       </c>
@@ -11521,11 +11612,11 @@
         <v>116</v>
       </c>
       <c r="D43" s="99"/>
-      <c r="E43" s="182"/>
+      <c r="E43" s="120"/>
       <c r="F43" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="181"/>
+      <c r="G43" s="119"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73" t="s">
         <v>122</v>
@@ -11536,36 +11627,36 @@
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="73"/>
-      <c r="N43" s="186"/>
-      <c r="O43" s="186"/>
-      <c r="P43" s="186"/>
-      <c r="Q43" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S43" s="191"/>
-      <c r="T43" s="194" t="s">
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S43" s="125"/>
+      <c r="T43" s="201" t="s">
         <v>138</v>
       </c>
-      <c r="U43" s="192"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X43" s="194" t="s">
+      <c r="U43" s="126"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X43" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="Y43" s="195"/>
-      <c r="Z43" s="186"/>
-      <c r="AA43" s="186"/>
-      <c r="AB43" s="186"/>
-      <c r="AC43" s="186"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
+      <c r="AC43" s="198"/>
       <c r="AG43" s="2"/>
     </row>
     <row r="44" spans="1:33" s="3" customFormat="1">
-      <c r="A44" s="181"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="60" t="s">
         <v>117</v>
       </c>
@@ -11577,7 +11668,7 @@
       <c r="F44" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="181"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60" t="s">
         <v>122</v>
@@ -11590,108 +11681,108 @@
       </c>
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="186"/>
-      <c r="Q44" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R44" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S44" s="191"/>
-      <c r="T44" s="194" t="s">
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" s="125"/>
+      <c r="T44" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="U44" s="192"/>
-      <c r="V44" s="194"/>
-      <c r="W44" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X44" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="195"/>
-      <c r="Z44" s="186"/>
-      <c r="AA44" s="186"/>
-      <c r="AB44" s="186"/>
-      <c r="AC44" s="186"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="201"/>
+      <c r="W44" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="198"/>
+      <c r="AA44" s="198"/>
+      <c r="AB44" s="198"/>
+      <c r="AC44" s="198"/>
       <c r="AG44" s="2"/>
     </row>
     <row r="45" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="181"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
       <c r="J45" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="102">
         <v>2</v>
       </c>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="R45" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="S45" s="191"/>
-      <c r="T45" s="196" t="s">
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="199"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" s="125"/>
+      <c r="T45" s="202" t="s">
         <v>180</v>
       </c>
-      <c r="U45" s="192"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="196" t="s">
+      <c r="U45" s="126"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="X45" s="196" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="197"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="187"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="187"/>
+      <c r="X45" s="202" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="199"/>
+      <c r="AA45" s="199"/>
+      <c r="AB45" s="199"/>
+      <c r="AC45" s="199"/>
       <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="1:33" s="3" customFormat="1">
-      <c r="A46" s="181"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="60" t="s">
         <v>120</v>
       </c>
       <c r="K46" s="60"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
       <c r="N46" s="109"/>
       <c r="O46" s="103"/>
       <c r="P46" s="103"/>
@@ -11733,7 +11824,7 @@
       <c r="K47" s="107"/>
       <c r="L47" s="107"/>
       <c r="M47" s="105"/>
-      <c r="N47" s="189" t="s">
+      <c r="N47" s="124" t="s">
         <v>190</v>
       </c>
       <c r="O47" s="103"/>
@@ -11773,7 +11864,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="107"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="189" t="s">
+      <c r="N48" s="124" t="s">
         <v>191</v>
       </c>
       <c r="O48" s="103"/>
@@ -11784,12 +11875,12 @@
       <c r="R48" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="191"/>
+      <c r="S48" s="125"/>
       <c r="T48" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="U48" s="192"/>
-      <c r="V48" s="198"/>
+      <c r="U48" s="126"/>
+      <c r="V48" s="127"/>
       <c r="W48" s="90" t="s">
         <v>143</v>
       </c>
@@ -11815,7 +11906,7 @@
       <c r="K49" s="107"/>
       <c r="L49" s="107"/>
       <c r="M49" s="105"/>
-      <c r="N49" s="189" t="s">
+      <c r="N49" s="124" t="s">
         <v>192</v>
       </c>
       <c r="O49" s="103"/>
@@ -11843,19 +11934,19 @@
       <c r="AC49" s="104"/>
     </row>
     <row r="50" spans="1:33" ht="108">
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="188" t="s">
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="123" t="s">
         <v>193</v>
       </c>
       <c r="O50" s="110"/>
@@ -11866,47 +11957,47 @@
       <c r="R50" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="S50" s="191"/>
+      <c r="S50" s="125"/>
       <c r="T50" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="U50" s="192"/>
-      <c r="V50" s="202"/>
+      <c r="U50" s="126"/>
+      <c r="V50" s="131"/>
       <c r="W50" s="93" t="s">
         <v>143</v>
       </c>
       <c r="X50" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="Y50" s="203"/>
+      <c r="Y50" s="132"/>
       <c r="Z50" s="104"/>
       <c r="AA50" s="104"/>
       <c r="AB50" s="104"/>
       <c r="AC50" s="104"/>
     </row>
     <row r="51" spans="1:33" ht="84">
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="112"/>
       <c r="K51" s="112"/>
       <c r="L51" s="112"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="188" t="s">
+      <c r="M51" s="114"/>
+      <c r="N51" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="O51" s="204"/>
-      <c r="P51" s="204"/>
-      <c r="Q51" s="204"/>
-      <c r="R51" s="204"/>
-      <c r="S51" s="204"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
       <c r="T51" s="60" t="s">
         <v>195</v>
       </c>
@@ -11936,14 +12027,14 @@
       <c r="K52" s="107"/>
       <c r="L52" s="107"/>
       <c r="M52" s="105"/>
-      <c r="N52" s="189" t="s">
+      <c r="N52" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="O52" s="204"/>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="204"/>
-      <c r="S52" s="204"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
       <c r="T52" s="60" t="s">
         <v>196</v>
       </c>
@@ -12049,13 +12140,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC37:AC45"/>
-    <mergeCell ref="W37:W45"/>
-    <mergeCell ref="X37:X45"/>
-    <mergeCell ref="Y37:Y45"/>
-    <mergeCell ref="Z37:Z45"/>
-    <mergeCell ref="AA37:AA45"/>
-    <mergeCell ref="AB37:AB45"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -12066,6 +12150,13 @@
     <mergeCell ref="R37:R45"/>
     <mergeCell ref="T37:T45"/>
     <mergeCell ref="V37:V45"/>
+    <mergeCell ref="AC37:AC45"/>
+    <mergeCell ref="W37:W45"/>
+    <mergeCell ref="X37:X45"/>
+    <mergeCell ref="Y37:Y45"/>
+    <mergeCell ref="Z37:Z45"/>
+    <mergeCell ref="AA37:AA45"/>
+    <mergeCell ref="AB37:AB45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -12129,39 +12220,39 @@
       <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="164" t="s">
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="175"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -12368,7 +12459,7 @@
         <v>116</v>
       </c>
       <c r="D6" s="90"/>
-      <c r="E6" s="177"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="90" t="s">
         <v>87</v>
       </c>
@@ -12647,7 +12738,7 @@
       <c r="I11" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="178" t="s">
+      <c r="J11" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K11" s="89">
@@ -12685,7 +12776,7 @@
       <c r="AC11" s="65"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="179"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="60" t="s">
         <v>117</v>
       </c>
@@ -12740,14 +12831,14 @@
       <c r="AC12" s="60"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1">
-      <c r="A13" s="179"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="180"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="64"/>
       <c r="F13" s="67" t="s">
         <v>97</v>
@@ -12793,7 +12884,7 @@
       <c r="AC13" s="60"/>
     </row>
     <row r="14" spans="1:33" s="3" customFormat="1">
-      <c r="A14" s="179"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="60" t="s">
         <v>117</v>
       </c>
@@ -12850,7 +12941,7 @@
       <c r="AC14" s="60"/>
     </row>
     <row r="15" spans="1:33" s="3" customFormat="1">
-      <c r="A15" s="179"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -12877,7 +12968,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="99"/>
-      <c r="N15" s="184"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="81" t="s">
@@ -12909,7 +13000,7 @@
       <c r="AC15" s="102"/>
     </row>
     <row r="16" spans="1:33" s="3" customFormat="1">
-      <c r="A16" s="181"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="60" t="s">
         <v>117</v>
       </c>
@@ -12959,7 +13050,7 @@
       <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="1:33" s="3" customFormat="1">
-      <c r="A17" s="181"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="60" t="s">
         <v>117</v>
       </c>
@@ -13015,7 +13106,7 @@
       <c r="AG17" s="2"/>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1">
-      <c r="A18" s="181"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="60" t="s">
         <v>117</v>
       </c>
@@ -13075,7 +13166,7 @@
       <c r="AG18" s="2"/>
     </row>
     <row r="19" spans="1:33" s="3" customFormat="1">
-      <c r="A19" s="181"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="60" t="s">
         <v>117</v>
       </c>
@@ -13131,7 +13222,7 @@
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="1:33" s="3" customFormat="1">
-      <c r="A20" s="181"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="60" t="s">
         <v>117</v>
       </c>
@@ -13187,7 +13278,7 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="1:33" s="3" customFormat="1">
-      <c r="A21" s="181"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="60" t="s">
         <v>117</v>
       </c>
@@ -13243,7 +13334,7 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" spans="1:33" s="3" customFormat="1">
-      <c r="A22" s="181"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="60" t="s">
         <v>117</v>
       </c>
@@ -13299,7 +13390,7 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="1:33" s="3" customFormat="1">
-      <c r="A23" s="181"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="60" t="s">
         <v>117</v>
       </c>
@@ -13355,7 +13446,7 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24" spans="1:33" s="3" customFormat="1">
-      <c r="A24" s="181"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="60" t="s">
         <v>117</v>
       </c>
@@ -13411,7 +13502,7 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="1:33" s="3" customFormat="1">
-      <c r="A25" s="181"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="60" t="s">
         <v>117</v>
       </c>
@@ -13467,7 +13558,7 @@
       <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="1:33" s="3" customFormat="1">
-      <c r="A26" s="181"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="60" t="s">
         <v>117</v>
       </c>
@@ -13521,7 +13612,7 @@
       <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="1:33" s="3" customFormat="1">
-      <c r="A27" s="181"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="60" t="s">
         <v>117</v>
       </c>
@@ -13575,7 +13666,7 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="1:33" s="3" customFormat="1">
-      <c r="A28" s="181"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="60" t="s">
         <v>117</v>
       </c>
@@ -13629,7 +13720,7 @@
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="1:33" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="181"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="60" t="s">
         <v>117</v>
       </c>
@@ -13689,7 +13780,7 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="1:33" s="3" customFormat="1">
-      <c r="A30" s="181"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="60" t="s">
         <v>117</v>
       </c>
@@ -13697,11 +13788,11 @@
         <v>116</v>
       </c>
       <c r="D30" s="99"/>
-      <c r="E30" s="182"/>
+      <c r="E30" s="120"/>
       <c r="F30" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="181"/>
+      <c r="G30" s="119"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73" t="s">
         <v>122</v>
@@ -13741,7 +13832,7 @@
       <c r="AG30" s="2"/>
     </row>
     <row r="31" spans="1:33" s="3" customFormat="1">
-      <c r="A31" s="181"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="60" t="s">
         <v>117</v>
       </c>
@@ -13749,11 +13840,11 @@
         <v>116</v>
       </c>
       <c r="D31" s="99"/>
-      <c r="E31" s="182"/>
+      <c r="E31" s="120"/>
       <c r="F31" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="181"/>
+      <c r="G31" s="119"/>
       <c r="H31" s="73"/>
       <c r="I31" s="73" t="s">
         <v>122</v>
@@ -13793,7 +13884,7 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="1:33" s="3" customFormat="1">
-      <c r="A32" s="181"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="60" t="s">
         <v>117</v>
       </c>
@@ -13801,11 +13892,11 @@
         <v>116</v>
       </c>
       <c r="D32" s="60"/>
-      <c r="E32" s="182"/>
+      <c r="E32" s="120"/>
       <c r="F32" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="181"/>
+      <c r="G32" s="119"/>
       <c r="H32" s="73"/>
       <c r="I32" s="73" t="s">
         <v>122</v>
@@ -13853,7 +13944,7 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33" spans="1:33" s="3" customFormat="1">
-      <c r="A33" s="181"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="60" t="s">
         <v>117</v>
       </c>
@@ -13909,7 +14000,7 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34" spans="1:33" s="3" customFormat="1">
-      <c r="A34" s="181"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="60" t="s">
         <v>117</v>
       </c>
@@ -13965,7 +14056,7 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35" spans="1:33" s="3" customFormat="1">
-      <c r="A35" s="181"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="60" t="s">
         <v>117</v>
       </c>
@@ -14021,29 +14112,29 @@
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="1:33" s="3" customFormat="1">
-      <c r="A36" s="181"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
       <c r="J36" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K36" s="102">
         <v>2</v>
       </c>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
       <c r="N36" s="108"/>
       <c r="O36" s="103"/>
       <c r="P36" s="103"/>
@@ -14075,7 +14166,7 @@
       <c r="AG36" s="2"/>
     </row>
     <row r="37" spans="1:33" s="3" customFormat="1">
-      <c r="A37" s="181"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="60" t="s">
         <v>117</v>
       </c>
@@ -14083,11 +14174,11 @@
         <v>116</v>
       </c>
       <c r="D37" s="99"/>
-      <c r="E37" s="182"/>
+      <c r="E37" s="120"/>
       <c r="F37" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="181"/>
+      <c r="G37" s="119"/>
       <c r="H37" s="73"/>
       <c r="I37" s="73" t="s">
         <v>122</v>
@@ -14098,36 +14189,36 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
-      <c r="N37" s="185" t="s">
+      <c r="N37" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="R37" s="190" t="s">
-        <v>118</v>
-      </c>
-      <c r="S37" s="191"/>
-      <c r="T37" s="190" t="s">
+      <c r="O37" s="197"/>
+      <c r="P37" s="197"/>
+      <c r="Q37" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="125"/>
+      <c r="T37" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="U37" s="192"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="X37" s="190" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y37" s="193">
+      <c r="U37" s="126"/>
+      <c r="V37" s="200"/>
+      <c r="W37" s="200" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y37" s="203">
         <v>2</v>
       </c>
-      <c r="Z37" s="185"/>
-      <c r="AA37" s="185"/>
-      <c r="AB37" s="185"/>
-      <c r="AC37" s="185"/>
+      <c r="Z37" s="197"/>
+      <c r="AA37" s="197"/>
+      <c r="AB37" s="197"/>
+      <c r="AC37" s="197"/>
       <c r="AG37" s="2"/>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="12">
@@ -14147,7 +14238,7 @@
       <c r="I38" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="178" t="s">
+      <c r="J38" s="116" t="s">
         <v>119</v>
       </c>
       <c r="K38" s="89">
@@ -14155,35 +14246,35 @@
       </c>
       <c r="L38" s="89"/>
       <c r="M38" s="60"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R38" s="194" t="s">
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R38" s="201" t="s">
         <v>118</v>
       </c>
       <c r="S38" s="83"/>
-      <c r="T38" s="194" t="s">
+      <c r="T38" s="201" t="s">
         <v>90</v>
       </c>
       <c r="U38" s="67"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X38" s="194" t="s">
+      <c r="V38" s="201"/>
+      <c r="W38" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X38" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y38" s="195"/>
-      <c r="Z38" s="186"/>
-      <c r="AA38" s="186"/>
-      <c r="AB38" s="186"/>
-      <c r="AC38" s="186"/>
+      <c r="Y38" s="204"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
     </row>
     <row r="39" spans="1:33" s="3" customFormat="1">
-      <c r="A39" s="181"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="60" t="s">
         <v>117</v>
       </c>
@@ -14191,11 +14282,11 @@
         <v>116</v>
       </c>
       <c r="D39" s="60"/>
-      <c r="E39" s="182"/>
+      <c r="E39" s="120"/>
       <c r="F39" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="181"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="60"/>
       <c r="I39" s="60" t="s">
         <v>122</v>
@@ -14208,36 +14299,36 @@
       </c>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S39" s="191"/>
-      <c r="T39" s="194" t="s">
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S39" s="125"/>
+      <c r="T39" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="U39" s="192"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X39" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y39" s="195"/>
-      <c r="Z39" s="186"/>
-      <c r="AA39" s="186"/>
-      <c r="AB39" s="186"/>
-      <c r="AC39" s="186"/>
+      <c r="U39" s="126"/>
+      <c r="V39" s="201"/>
+      <c r="W39" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y39" s="204"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="198"/>
+      <c r="AC39" s="198"/>
       <c r="AG39" s="2"/>
     </row>
     <row r="40" spans="1:33" s="3" customFormat="1">
-      <c r="A40" s="181"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="60" t="s">
         <v>117</v>
       </c>
@@ -14245,11 +14336,11 @@
         <v>116</v>
       </c>
       <c r="D40" s="99"/>
-      <c r="E40" s="182"/>
+      <c r="E40" s="120"/>
       <c r="F40" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="181"/>
+      <c r="G40" s="119"/>
       <c r="H40" s="73"/>
       <c r="I40" s="73" t="s">
         <v>122</v>
@@ -14262,36 +14353,36 @@
       </c>
       <c r="L40" s="73"/>
       <c r="M40" s="73"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="186"/>
-      <c r="P40" s="186"/>
-      <c r="Q40" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R40" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S40" s="191"/>
-      <c r="T40" s="194" t="s">
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40" s="125"/>
+      <c r="T40" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="U40" s="192"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X40" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y40" s="195"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="186"/>
-      <c r="AC40" s="186"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="201"/>
+      <c r="W40" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y40" s="204"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
+      <c r="AC40" s="198"/>
       <c r="AG40" s="2"/>
     </row>
     <row r="41" spans="1:33" s="3" customFormat="1">
-      <c r="A41" s="181"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="60" t="s">
         <v>117</v>
       </c>
@@ -14299,11 +14390,11 @@
         <v>116</v>
       </c>
       <c r="D41" s="60"/>
-      <c r="E41" s="182"/>
+      <c r="E41" s="120"/>
       <c r="F41" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="181"/>
+      <c r="G41" s="119"/>
       <c r="H41" s="60"/>
       <c r="I41" s="60" t="s">
         <v>122</v>
@@ -14316,36 +14407,36 @@
       </c>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
-      <c r="N41" s="186"/>
-      <c r="O41" s="186"/>
-      <c r="P41" s="186"/>
-      <c r="Q41" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S41" s="191"/>
-      <c r="T41" s="194" t="s">
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S41" s="125"/>
+      <c r="T41" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="U41" s="192"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X41" s="194" t="s">
+      <c r="U41" s="126"/>
+      <c r="V41" s="201"/>
+      <c r="W41" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X41" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y41" s="195"/>
-      <c r="Z41" s="186"/>
-      <c r="AA41" s="186"/>
-      <c r="AB41" s="186"/>
-      <c r="AC41" s="186"/>
+      <c r="Y41" s="204"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+      <c r="AC41" s="198"/>
       <c r="AG41" s="2"/>
     </row>
     <row r="42" spans="1:33" s="3" customFormat="1">
-      <c r="A42" s="181"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="60" t="s">
         <v>117</v>
       </c>
@@ -14370,36 +14461,36 @@
       </c>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="186"/>
-      <c r="Q42" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S42" s="191"/>
-      <c r="T42" s="194" t="s">
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S42" s="125"/>
+      <c r="T42" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="U42" s="192"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y42" s="195"/>
-      <c r="Z42" s="186"/>
-      <c r="AA42" s="186"/>
-      <c r="AB42" s="186"/>
-      <c r="AC42" s="186"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="201"/>
+      <c r="W42" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X42" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+      <c r="AC42" s="198"/>
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="1:33" s="3" customFormat="1">
-      <c r="A43" s="181"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="60" t="s">
         <v>117</v>
       </c>
@@ -14407,11 +14498,11 @@
         <v>116</v>
       </c>
       <c r="D43" s="99"/>
-      <c r="E43" s="182"/>
+      <c r="E43" s="120"/>
       <c r="F43" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="181"/>
+      <c r="G43" s="119"/>
       <c r="H43" s="73"/>
       <c r="I43" s="73" t="s">
         <v>122</v>
@@ -14422,36 +14513,36 @@
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="73"/>
-      <c r="N43" s="186"/>
-      <c r="O43" s="186"/>
-      <c r="P43" s="186"/>
-      <c r="Q43" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S43" s="191"/>
-      <c r="T43" s="194" t="s">
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S43" s="125"/>
+      <c r="T43" s="201" t="s">
         <v>138</v>
       </c>
-      <c r="U43" s="192"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X43" s="194" t="s">
+      <c r="U43" s="126"/>
+      <c r="V43" s="201"/>
+      <c r="W43" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X43" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="Y43" s="195"/>
-      <c r="Z43" s="186"/>
-      <c r="AA43" s="186"/>
-      <c r="AB43" s="186"/>
-      <c r="AC43" s="186"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
+      <c r="AC43" s="198"/>
       <c r="AG43" s="2"/>
     </row>
     <row r="44" spans="1:33" s="3" customFormat="1">
-      <c r="A44" s="181"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="60" t="s">
         <v>117</v>
       </c>
@@ -14463,7 +14554,7 @@
       <c r="F44" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="181"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="60"/>
       <c r="I44" s="60" t="s">
         <v>122</v>
@@ -14476,108 +14567,108 @@
       </c>
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="186"/>
-      <c r="Q44" s="194" t="s">
-        <v>116</v>
-      </c>
-      <c r="R44" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="S44" s="191"/>
-      <c r="T44" s="194" t="s">
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="201" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" s="125"/>
+      <c r="T44" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="U44" s="192"/>
-      <c r="V44" s="194"/>
-      <c r="W44" s="194" t="s">
-        <v>122</v>
-      </c>
-      <c r="X44" s="194" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y44" s="195"/>
-      <c r="Z44" s="186"/>
-      <c r="AA44" s="186"/>
-      <c r="AB44" s="186"/>
-      <c r="AC44" s="186"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="201"/>
+      <c r="W44" s="201" t="s">
+        <v>122</v>
+      </c>
+      <c r="X44" s="201" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="198"/>
+      <c r="AA44" s="198"/>
+      <c r="AB44" s="198"/>
+      <c r="AC44" s="198"/>
       <c r="AG44" s="2"/>
     </row>
     <row r="45" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="181"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
       <c r="J45" s="102" t="s">
         <v>121</v>
       </c>
       <c r="K45" s="102">
         <v>2</v>
       </c>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="187"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="187"/>
-      <c r="Q45" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="R45" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="S45" s="191"/>
-      <c r="T45" s="196" t="s">
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="199"/>
+      <c r="O45" s="199"/>
+      <c r="P45" s="199"/>
+      <c r="Q45" s="202" t="s">
+        <v>116</v>
+      </c>
+      <c r="R45" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" s="125"/>
+      <c r="T45" s="202" t="s">
         <v>180</v>
       </c>
-      <c r="U45" s="192"/>
-      <c r="V45" s="196"/>
-      <c r="W45" s="196" t="s">
+      <c r="U45" s="126"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="X45" s="196" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="197"/>
-      <c r="Z45" s="187"/>
-      <c r="AA45" s="187"/>
-      <c r="AB45" s="187"/>
-      <c r="AC45" s="187"/>
+      <c r="X45" s="202" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="205"/>
+      <c r="Z45" s="199"/>
+      <c r="AA45" s="199"/>
+      <c r="AB45" s="199"/>
+      <c r="AC45" s="199"/>
       <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="1:33" s="3" customFormat="1">
-      <c r="A46" s="181"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
       <c r="J46" s="60" t="s">
         <v>120</v>
       </c>
       <c r="K46" s="60"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
       <c r="N46" s="109"/>
       <c r="O46" s="103"/>
       <c r="P46" s="103"/>
@@ -14619,7 +14710,7 @@
       <c r="K47" s="107"/>
       <c r="L47" s="107"/>
       <c r="M47" s="105"/>
-      <c r="N47" s="189" t="s">
+      <c r="N47" s="124" t="s">
         <v>190</v>
       </c>
       <c r="O47" s="103"/>
@@ -14659,7 +14750,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="107"/>
       <c r="M48" s="105"/>
-      <c r="N48" s="189" t="s">
+      <c r="N48" s="124" t="s">
         <v>191</v>
       </c>
       <c r="O48" s="103"/>
@@ -14670,12 +14761,12 @@
       <c r="R48" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="191"/>
+      <c r="S48" s="125"/>
       <c r="T48" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="U48" s="192"/>
-      <c r="V48" s="198"/>
+      <c r="U48" s="126"/>
+      <c r="V48" s="127"/>
       <c r="W48" s="90" t="s">
         <v>143</v>
       </c>
@@ -14701,7 +14792,7 @@
       <c r="K49" s="107"/>
       <c r="L49" s="107"/>
       <c r="M49" s="105"/>
-      <c r="N49" s="189" t="s">
+      <c r="N49" s="124" t="s">
         <v>192</v>
       </c>
       <c r="O49" s="103"/>
@@ -14729,19 +14820,19 @@
       <c r="AC49" s="104"/>
     </row>
     <row r="50" spans="2:29" ht="108">
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="188" t="s">
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="123" t="s">
         <v>193</v>
       </c>
       <c r="O50" s="110"/>
@@ -14752,47 +14843,47 @@
       <c r="R50" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="S50" s="191"/>
+      <c r="S50" s="125"/>
       <c r="T50" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="U50" s="192"/>
-      <c r="V50" s="202"/>
+      <c r="U50" s="126"/>
+      <c r="V50" s="131"/>
       <c r="W50" s="93" t="s">
         <v>143</v>
       </c>
       <c r="X50" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="Y50" s="203"/>
+      <c r="Y50" s="132"/>
       <c r="Z50" s="104"/>
       <c r="AA50" s="104"/>
       <c r="AB50" s="104"/>
       <c r="AC50" s="104"/>
     </row>
     <row r="51" spans="2:29" ht="84">
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="112"/>
       <c r="K51" s="112"/>
       <c r="L51" s="112"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="188" t="s">
+      <c r="M51" s="114"/>
+      <c r="N51" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="O51" s="204"/>
-      <c r="P51" s="204"/>
-      <c r="Q51" s="204"/>
-      <c r="R51" s="204"/>
-      <c r="S51" s="204"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="133"/>
+      <c r="R51" s="133"/>
+      <c r="S51" s="133"/>
       <c r="T51" s="60" t="s">
         <v>195</v>
       </c>
@@ -14821,14 +14912,14 @@
       <c r="K52" s="107"/>
       <c r="L52" s="107"/>
       <c r="M52" s="105"/>
-      <c r="N52" s="189" t="s">
+      <c r="N52" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="O52" s="204"/>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="204"/>
-      <c r="S52" s="204"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
       <c r="T52" s="60" t="s">
         <v>196</v>
       </c>
@@ -14845,7 +14936,7 @@
       <c r="C53" s="84"/>
       <c r="D53" s="96"/>
       <c r="E53" s="85"/>
-      <c r="F53" s="205"/>
+      <c r="F53" s="134"/>
       <c r="G53" s="84"/>
       <c r="H53" s="84"/>
       <c r="I53" s="84"/>
@@ -14930,13 +15021,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC37:AC45"/>
-    <mergeCell ref="W37:W45"/>
-    <mergeCell ref="X37:X45"/>
-    <mergeCell ref="Y37:Y45"/>
-    <mergeCell ref="Z37:Z45"/>
-    <mergeCell ref="AA37:AA45"/>
-    <mergeCell ref="AB37:AB45"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -14947,6 +15031,13 @@
     <mergeCell ref="R37:R45"/>
     <mergeCell ref="T37:T45"/>
     <mergeCell ref="V37:V45"/>
+    <mergeCell ref="AC37:AC45"/>
+    <mergeCell ref="W37:W45"/>
+    <mergeCell ref="X37:X45"/>
+    <mergeCell ref="Y37:Y45"/>
+    <mergeCell ref="Z37:Z45"/>
+    <mergeCell ref="AA37:AA45"/>
+    <mergeCell ref="AB37:AB45"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -15214,16 +15305,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -15272,39 +15362,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15319,10 +15395,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>